--- a/エネマネ試作/Main_/Main_xlsx/Main_v_00.xlsx
+++ b/エネマネ試作/Main_/Main_xlsx/Main_v_00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\エネマネ試作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\GitHub\solar-energy-management-\エネマネ試作\Main_\Main_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F1BCB5-E520-4496-979A-32613AE4245F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB9AC24-EDE2-4407-841D-2878FF5A28FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D620E75-B540-46C9-972D-6336FC9450F7}"/>
   </bookViews>
@@ -30,7 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1423,7 +1428,7 @@
   <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1436,68 +1441,71 @@
     <col min="9" max="9" width="23.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4"/>
       <c r="D2" s="5"/>
       <c r="G2" s="5"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4"/>
       <c r="D16" s="5"/>
     </row>
